--- a/data/pca/factorExposure/factorExposure_2009-11-25.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-11-25.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +711,36 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>-0.004273108190660387</v>
+        <v>0.01657556310056479</v>
       </c>
       <c r="C2">
-        <v>-0.009743166652979441</v>
+        <v>-0.0009993883940489349</v>
       </c>
       <c r="D2">
-        <v>0.001617242667089243</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.00771984496731744</v>
+      </c>
+      <c r="E2">
+        <v>-0.0003972482252088225</v>
+      </c>
+      <c r="F2">
+        <v>0.01160227320079799</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +751,36 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>-0.03626183129020272</v>
+        <v>0.09360955854872913</v>
       </c>
       <c r="C4">
-        <v>-0.110399451071121</v>
+        <v>-0.01534644589782715</v>
       </c>
       <c r="D4">
-        <v>0.03437850066200857</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.083551085916581</v>
+      </c>
+      <c r="E4">
+        <v>-0.0280723202032487</v>
+      </c>
+      <c r="F4">
+        <v>-0.0307170412790111</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +791,236 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>-0.04969206135296008</v>
+        <v>0.1576571608069119</v>
       </c>
       <c r="C6">
-        <v>-0.1228530332406622</v>
+        <v>-0.02553534159604865</v>
       </c>
       <c r="D6">
-        <v>-0.0456966037058862</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.02095081557463699</v>
+      </c>
+      <c r="E6">
+        <v>-0.01199956418625582</v>
+      </c>
+      <c r="F6">
+        <v>-0.04618897670201611</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>-0.01468689454733154</v>
+        <v>0.06276037147635349</v>
       </c>
       <c r="C7">
-        <v>-0.08197781277660922</v>
+        <v>0.001592503572248874</v>
       </c>
       <c r="D7">
-        <v>0.008757688164608521</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.05302203091455025</v>
+      </c>
+      <c r="E7">
+        <v>-0.00975624348251437</v>
+      </c>
+      <c r="F7">
+        <v>-0.04776358564729943</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>-0.001700792968095668</v>
+        <v>0.05712077425868623</v>
       </c>
       <c r="C8">
-        <v>-0.06608836259551741</v>
+        <v>0.01359125593134052</v>
       </c>
       <c r="D8">
-        <v>-0.02089387178618706</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.03355283192589058</v>
+      </c>
+      <c r="E8">
+        <v>-0.01739946595233122</v>
+      </c>
+      <c r="F8">
+        <v>0.02773551773388125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>-0.03119770440347876</v>
+        <v>0.07117848046302638</v>
       </c>
       <c r="C9">
-        <v>-0.09393856147466272</v>
+        <v>-0.01085601540485137</v>
       </c>
       <c r="D9">
-        <v>0.03535860512449995</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.08596923061613096</v>
+      </c>
+      <c r="E9">
+        <v>-0.0227482460168687</v>
+      </c>
+      <c r="F9">
+        <v>-0.04723967083313272</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>-0.01557320038505825</v>
+        <v>0.09489135615239329</v>
       </c>
       <c r="C10">
-        <v>-0.02731110621850077</v>
+        <v>-0.02075083545832245</v>
       </c>
       <c r="D10">
-        <v>-0.1239347400751551</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.1700644253912219</v>
+      </c>
+      <c r="E10">
+        <v>0.03555493925738</v>
+      </c>
+      <c r="F10">
+        <v>0.0542437458921689</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>-0.03402348591591437</v>
+        <v>0.08735374901951523</v>
       </c>
       <c r="C11">
-        <v>-0.09686395787236728</v>
+        <v>-0.01049779910464795</v>
       </c>
       <c r="D11">
-        <v>0.05264243785799647</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.1169408052018525</v>
+      </c>
+      <c r="E11">
+        <v>-0.04626102766888976</v>
+      </c>
+      <c r="F11">
+        <v>-0.02203416841154975</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>-0.0336549849042244</v>
+        <v>0.09195932938259144</v>
       </c>
       <c r="C12">
-        <v>-0.1075828315497583</v>
+        <v>-0.007977913821262818</v>
       </c>
       <c r="D12">
-        <v>0.0513783852822688</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.1315110615345641</v>
+      </c>
+      <c r="E12">
+        <v>-0.04770264375974492</v>
+      </c>
+      <c r="F12">
+        <v>-0.02702962272915811</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>-0.01165130372384331</v>
+        <v>0.04162568279171081</v>
       </c>
       <c r="C13">
-        <v>-0.03627209138162739</v>
+        <v>-0.003062945746710909</v>
       </c>
       <c r="D13">
-        <v>0.03240974772335535</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.05194392082913044</v>
+      </c>
+      <c r="E13">
+        <v>0.008601234669544617</v>
+      </c>
+      <c r="F13">
+        <v>-0.002765105699000215</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>-0.01974655714221062</v>
+        <v>0.02266168877889766</v>
       </c>
       <c r="C14">
-        <v>-0.0265386218058182</v>
+        <v>-0.01371947944670378</v>
       </c>
       <c r="D14">
-        <v>-0.001647519417536689</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.03303717968771119</v>
+      </c>
+      <c r="E14">
+        <v>-0.01741285009500155</v>
+      </c>
+      <c r="F14">
+        <v>-0.01375870955218606</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>-0.0141703543033816</v>
+        <v>0.03315491009181318</v>
       </c>
       <c r="C15">
-        <v>-0.03265992269493884</v>
+        <v>-0.004809080754926514</v>
       </c>
       <c r="D15">
-        <v>0.009490468306760966</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.04488590133174486</v>
+      </c>
+      <c r="E15">
+        <v>-0.005838237810721236</v>
+      </c>
+      <c r="F15">
+        <v>-0.02326125050630485</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>-0.0241093878285121</v>
+        <v>0.07412414393419163</v>
       </c>
       <c r="C16">
-        <v>-0.098737328455891</v>
+        <v>-0.00164129127075996</v>
       </c>
       <c r="D16">
-        <v>0.04341218171526679</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.1254593612745446</v>
+      </c>
+      <c r="E16">
+        <v>-0.06157811355110013</v>
+      </c>
+      <c r="F16">
+        <v>-0.0241286503384349</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,24 +1031,36 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>0.03292772361592546</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>0.00363141514292203</v>
       </c>
       <c r="D18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>-0.01862098311154649</v>
+      </c>
+      <c r="E18">
+        <v>0.007787036319673836</v>
+      </c>
+      <c r="F18">
+        <v>0.006070048535212399</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1071,156 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>-0.01636915609428806</v>
+        <v>0.06073569813489205</v>
       </c>
       <c r="C20">
-        <v>-0.05647499582346818</v>
+        <v>-0.0002940946071952438</v>
       </c>
       <c r="D20">
-        <v>0.009304679285340069</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.07717872388544203</v>
+      </c>
+      <c r="E20">
+        <v>-0.05540774620597302</v>
+      </c>
+      <c r="F20">
+        <v>-0.0224074676676625</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>-0.01550822403596177</v>
+        <v>0.04070797268353006</v>
       </c>
       <c r="C21">
-        <v>-0.02243508019475617</v>
+        <v>-0.006469513811459722</v>
       </c>
       <c r="D21">
-        <v>0.003951655003685144</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.03713940247403399</v>
+      </c>
+      <c r="E21">
+        <v>0.005690786543022774</v>
+      </c>
+      <c r="F21">
+        <v>0.02397180630464419</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>-0.006781894726205977</v>
+        <v>0.04338000999380741</v>
       </c>
       <c r="C22">
-        <v>-0.03144793211119779</v>
+        <v>-0.0006743356502739468</v>
       </c>
       <c r="D22">
-        <v>-0.03353399803446253</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.004516408707196576</v>
+      </c>
+      <c r="E22">
+        <v>-0.03031997596933201</v>
+      </c>
+      <c r="F22">
+        <v>0.03699456106144609</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>-0.006768373194727367</v>
+        <v>0.04336558417812399</v>
       </c>
       <c r="C23">
-        <v>-0.0313920801369339</v>
+        <v>-0.0006699746892831943</v>
       </c>
       <c r="D23">
-        <v>-0.03359706954347152</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.004521055553794801</v>
+      </c>
+      <c r="E23">
+        <v>-0.03052147322793251</v>
+      </c>
+      <c r="F23">
+        <v>0.0369587550041068</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>-0.02491846557501934</v>
+        <v>0.07987931542776179</v>
       </c>
       <c r="C24">
-        <v>-0.104748968246537</v>
+        <v>-0.002078171550668672</v>
       </c>
       <c r="D24">
-        <v>0.04823425150080187</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.1210525497434993</v>
+      </c>
+      <c r="E24">
+        <v>-0.04900754619345152</v>
+      </c>
+      <c r="F24">
+        <v>-0.02628819518860457</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>-0.02864867767869677</v>
+        <v>0.08466719622669343</v>
       </c>
       <c r="C25">
-        <v>-0.1011684025878669</v>
+        <v>-0.004360718961957992</v>
       </c>
       <c r="D25">
-        <v>0.05580266179822303</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.1095094770304625</v>
+      </c>
+      <c r="E25">
+        <v>-0.03257171950368457</v>
+      </c>
+      <c r="F25">
+        <v>-0.02652319618475637</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>-0.02668723425666635</v>
+        <v>0.05808976164242715</v>
       </c>
       <c r="C26">
-        <v>-0.0455897508595383</v>
+        <v>-0.01433547592778723</v>
       </c>
       <c r="D26">
-        <v>-0.002309993177567508</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.04029745440306663</v>
+      </c>
+      <c r="E26">
+        <v>-0.02847219078877718</v>
+      </c>
+      <c r="F26">
+        <v>0.009602558869351234</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,206 +1231,296 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>-0.01662501609703122</v>
+        <v>0.140396633167515</v>
       </c>
       <c r="C28">
-        <v>-0.05694800349812113</v>
+        <v>-0.02025021019586834</v>
       </c>
       <c r="D28">
-        <v>-0.2156792598366785</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.2615851819155401</v>
+      </c>
+      <c r="E28">
+        <v>0.06749008649376642</v>
+      </c>
+      <c r="F28">
+        <v>-0.01033157072601132</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>-0.01527577622517828</v>
+        <v>0.02755608815208378</v>
       </c>
       <c r="C29">
-        <v>-0.02537267695515895</v>
+        <v>-0.008269098262963093</v>
       </c>
       <c r="D29">
-        <v>-0.001699547263384561</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.031922717249967</v>
+      </c>
+      <c r="E29">
+        <v>-0.01121080345648493</v>
+      </c>
+      <c r="F29">
+        <v>0.01154715261999222</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>-0.02503824886522618</v>
+        <v>0.0608448902738546</v>
       </c>
       <c r="C30">
-        <v>-0.12434633773094</v>
+        <v>-0.003234478090004515</v>
       </c>
       <c r="D30">
-        <v>0.0330240897000146</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.08914295143036143</v>
+      </c>
+      <c r="E30">
+        <v>-0.01930787147885933</v>
+      </c>
+      <c r="F30">
+        <v>-0.08306285909780763</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>-0.02317304102105448</v>
+        <v>0.05006445555079173</v>
       </c>
       <c r="C31">
-        <v>-0.03378331121713021</v>
+        <v>-0.01517733737828677</v>
       </c>
       <c r="D31">
-        <v>0.00565669622964264</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.02469505593817144</v>
+      </c>
+      <c r="E31">
+        <v>-0.02741134717691698</v>
+      </c>
+      <c r="F31">
+        <v>0.00221818548226123</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>-0.01210078276239132</v>
+        <v>0.04993938059750356</v>
       </c>
       <c r="C32">
-        <v>-0.06244987030502377</v>
+        <v>0.001618057054180153</v>
       </c>
       <c r="D32">
-        <v>-0.01400481213343877</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.0368700950359823</v>
+      </c>
+      <c r="E32">
+        <v>-0.0316088630640138</v>
+      </c>
+      <c r="F32">
+        <v>-0.003020358130612277</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>-0.03031220523264743</v>
+        <v>0.08964911324575429</v>
       </c>
       <c r="C33">
-        <v>-0.1066928683072801</v>
+        <v>-0.007569190414704375</v>
       </c>
       <c r="D33">
-        <v>0.03336706469295919</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.09920690429224124</v>
+      </c>
+      <c r="E33">
+        <v>-0.04367284348413566</v>
+      </c>
+      <c r="F33">
+        <v>-0.0354231024934696</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>-0.03135071297621706</v>
+        <v>0.06742909655287443</v>
       </c>
       <c r="C34">
-        <v>-0.09209812616194207</v>
+        <v>-0.01047629465440103</v>
       </c>
       <c r="D34">
-        <v>0.04733861686395506</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.1078893426771993</v>
+      </c>
+      <c r="E34">
+        <v>-0.03447378539743905</v>
+      </c>
+      <c r="F34">
+        <v>-0.03350559867139791</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>-0.006277404527513069</v>
+        <v>0.02438740871598697</v>
       </c>
       <c r="C35">
-        <v>-0.01864566168509097</v>
+        <v>-0.002393840102801784</v>
       </c>
       <c r="D35">
-        <v>0.0003076356516381698</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.01135198457356994</v>
+      </c>
+      <c r="E35">
+        <v>-0.01142649083817075</v>
+      </c>
+      <c r="F35">
+        <v>-0.0004651798882525605</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>-0.01399275332878427</v>
+        <v>0.02785036453170633</v>
       </c>
       <c r="C36">
-        <v>-0.02717639035142813</v>
+        <v>-0.007052072560477482</v>
       </c>
       <c r="D36">
-        <v>0.01243131896164918</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.0394373371302562</v>
+      </c>
+      <c r="E36">
+        <v>-0.01647520238507555</v>
+      </c>
+      <c r="F36">
+        <v>-0.0144697349706696</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>0.0003221821295420058</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>7.575050102381716e-05</v>
       </c>
       <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>0.0003720709724335973</v>
+      </c>
+      <c r="E37">
+        <v>0.0004369170376561895</v>
+      </c>
+      <c r="F37">
+        <v>-0.000686948866748233</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
-        <v>-0.0006679636473426369</v>
+        <v>0.001361116993551212</v>
       </c>
       <c r="C38">
-        <v>-0.003427628476822256</v>
+        <v>-0.0002224518800875088</v>
       </c>
       <c r="D38">
-        <v>-0.002298610218762584</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.0002717176821238854</v>
+      </c>
+      <c r="E38">
+        <v>-0.000337735973870115</v>
+      </c>
+      <c r="F38">
+        <v>0.00101098108686875</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>-0.04762963027667603</v>
+        <v>0.1052454322925971</v>
       </c>
       <c r="C39">
-        <v>-0.1493502973299307</v>
+        <v>-0.01577426783194669</v>
       </c>
       <c r="D39">
-        <v>0.08840311016473246</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.1539966223194627</v>
+      </c>
+      <c r="E39">
+        <v>-0.05900676972565772</v>
+      </c>
+      <c r="F39">
+        <v>-0.02945269162735499</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>-0.01223459468902739</v>
+        <v>0.0420070428563164</v>
       </c>
       <c r="C40">
-        <v>-0.00946590015510544</v>
+        <v>-0.006670255579185334</v>
       </c>
       <c r="D40">
-        <v>-0.006305559242930902</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.03160864365384548</v>
+      </c>
+      <c r="E40">
+        <v>-0.002740944747713166</v>
+      </c>
+      <c r="F40">
+        <v>0.01612228370184767</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>-0.01243668507057793</v>
+        <v>0.02805822185676619</v>
       </c>
       <c r="C41">
-        <v>-0.01735499844635605</v>
+        <v>-0.006835550663266464</v>
       </c>
       <c r="D41">
-        <v>-0.01300245095435251</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.01012078289908802</v>
+      </c>
+      <c r="E41">
+        <v>-0.01244875076095776</v>
+      </c>
+      <c r="F41">
+        <v>0.00635203384517939</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1531,56 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>-0.01453939443510687</v>
+        <v>0.04082808357943434</v>
       </c>
       <c r="C43">
-        <v>-0.02690364439209413</v>
+        <v>-0.006790154289615303</v>
       </c>
       <c r="D43">
-        <v>-0.006136397677314086</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.01951226375173259</v>
+      </c>
+      <c r="E43">
+        <v>-0.02461447491773383</v>
+      </c>
+      <c r="F43">
+        <v>0.01314417526550732</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>-0.04352947134064581</v>
+        <v>0.07955569047757353</v>
       </c>
       <c r="C44">
-        <v>-0.1230607650836095</v>
+        <v>-0.01988288778409307</v>
       </c>
       <c r="D44">
-        <v>0.02044163400537646</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.09756193637017244</v>
+      </c>
+      <c r="E44">
+        <v>-0.06483408066873805</v>
+      </c>
+      <c r="F44">
+        <v>-0.155387109118173</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,164 +1591,236 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>-0.005649334221940659</v>
+        <v>0.02320428296040762</v>
       </c>
       <c r="C46">
-        <v>-0.006594169220411755</v>
+        <v>-0.003337182283072483</v>
       </c>
       <c r="D46">
-        <v>-0.01292360496905217</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.01298728586337649</v>
+      </c>
+      <c r="E46">
+        <v>-0.02196412264479505</v>
+      </c>
+      <c r="F46">
+        <v>0.00638964202543572</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>-0.01222560106473845</v>
+        <v>0.05131841119315415</v>
       </c>
       <c r="C47">
-        <v>-0.03037747132666155</v>
+        <v>-0.003459356742313303</v>
       </c>
       <c r="D47">
-        <v>-0.02267432026778753</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.01376343314033045</v>
+      </c>
+      <c r="E47">
+        <v>-0.02340808968182661</v>
+      </c>
+      <c r="F47">
+        <v>0.03360208370971488</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>-0.01448798116716716</v>
+        <v>0.04992949186046761</v>
       </c>
       <c r="C48">
-        <v>-0.04817609883066699</v>
+        <v>-0.00243341775346954</v>
       </c>
       <c r="D48">
-        <v>0.02510549058806681</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.04979567258455107</v>
+      </c>
+      <c r="E48">
+        <v>0.006173930818958029</v>
+      </c>
+      <c r="F48">
+        <v>-0.009314388783404114</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>-0.05473433125237866</v>
+        <v>0.2003523745838426</v>
       </c>
       <c r="C49">
-        <v>-0.221555209131257</v>
+        <v>-0.01889734012916416</v>
       </c>
       <c r="D49">
-        <v>-0.05926770915345181</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>0.008013450112695563</v>
+      </c>
+      <c r="E49">
+        <v>-0.03084622693584103</v>
+      </c>
+      <c r="F49">
+        <v>-0.03923823975335073</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>-0.02049929978142442</v>
+        <v>0.05050078190094544</v>
       </c>
       <c r="C50">
-        <v>-0.03735921191907095</v>
+        <v>-0.01119748899924272</v>
       </c>
       <c r="D50">
-        <v>0.0004823830843280723</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.02377381371066067</v>
+      </c>
+      <c r="E50">
+        <v>-0.02963115189416459</v>
+      </c>
+      <c r="F50">
+        <v>-0.009310313787951134</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
-        <v>-0.0003079894288682869</v>
+        <v>0.0005012828604542491</v>
       </c>
       <c r="C51">
-        <v>-0.001180109733671651</v>
+        <v>-0.0001396578178072394</v>
       </c>
       <c r="D51">
-        <v>-0.001045901719519744</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.0001816174400377653</v>
+      </c>
+      <c r="E51">
+        <v>-3.617306464515638e-05</v>
+      </c>
+      <c r="F51">
+        <v>-0.001876277834014433</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>-0.04063271598889718</v>
+        <v>0.1464531351909853</v>
       </c>
       <c r="C52">
-        <v>-0.1499994317741744</v>
+        <v>-0.01587318606325387</v>
       </c>
       <c r="D52">
-        <v>0.02192548750364711</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>-0.0445701235019044</v>
+      </c>
+      <c r="E52">
+        <v>-0.02073820560038493</v>
+      </c>
+      <c r="F52">
+        <v>-0.0418434651442521</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>-0.04443159087147678</v>
+        <v>0.1718605428030576</v>
       </c>
       <c r="C53">
-        <v>-0.1716055627502795</v>
+        <v>-0.01893290513232381</v>
       </c>
       <c r="D53">
-        <v>-0.01255560833582552</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.00681028743006751</v>
+      </c>
+      <c r="E53">
+        <v>-0.03212941502429165</v>
+      </c>
+      <c r="F53">
+        <v>-0.07298345182371199</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>-0.017377318307833</v>
+        <v>0.02230937893099145</v>
       </c>
       <c r="C54">
-        <v>-0.03173292749939479</v>
+        <v>-0.0121345730678439</v>
       </c>
       <c r="D54">
-        <v>0.003629212026314577</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.03453762971957971</v>
+      </c>
+      <c r="E54">
+        <v>-0.01863601086521888</v>
+      </c>
+      <c r="F54">
+        <v>0.004233422068160353</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>-0.03139597469710571</v>
+        <v>0.114104850920881</v>
       </c>
       <c r="C55">
-        <v>-0.09124609112616738</v>
+        <v>-0.01649204137167004</v>
       </c>
       <c r="D55">
-        <v>0.003712611706553681</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.009606210810780239</v>
+      </c>
+      <c r="E55">
+        <v>-0.02832130207592713</v>
+      </c>
+      <c r="F55">
+        <v>-0.04758045504478738</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>-0.04092754010775668</v>
+        <v>0.176874933769168</v>
       </c>
       <c r="C56">
-        <v>-0.1600678358711931</v>
+        <v>-0.0164796789760366</v>
       </c>
       <c r="D56">
-        <v>-0.01827025589159774</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.0007012897305478043</v>
+      </c>
+      <c r="E56">
+        <v>-0.03576933682602706</v>
+      </c>
+      <c r="F56">
+        <v>-0.05157618858794775</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,626 +1831,896 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>-0.01572963349162877</v>
+        <v>0.0460989250190117</v>
       </c>
       <c r="C58">
-        <v>-0.05019251744517592</v>
+        <v>-0.0004467491263394892</v>
       </c>
       <c r="D58">
-        <v>0.01730661644443623</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.06763639960768605</v>
+      </c>
+      <c r="E58">
+        <v>-0.02713276949665282</v>
+      </c>
+      <c r="F58">
+        <v>0.03674123428105758</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>-0.02572648508628564</v>
+        <v>0.1684403293497867</v>
       </c>
       <c r="C59">
-        <v>-0.1097272696840356</v>
+        <v>-0.02078029170961691</v>
       </c>
       <c r="D59">
-        <v>-0.2176177880597804</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.2184566422745537</v>
+      </c>
+      <c r="E59">
+        <v>0.04644548068472582</v>
+      </c>
+      <c r="F59">
+        <v>0.0344381386613611</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>-0.04263454321063436</v>
+        <v>0.2319252047974582</v>
       </c>
       <c r="C60">
-        <v>-0.2682021388749723</v>
+        <v>0.002724048371977869</v>
       </c>
       <c r="D60">
-        <v>0.0005126537585218574</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.0420756434536558</v>
+      </c>
+      <c r="E60">
+        <v>-0.01125431485524516</v>
+      </c>
+      <c r="F60">
+        <v>0.006517063091931608</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>-0.0352425649187523</v>
+        <v>0.08147704039980126</v>
       </c>
       <c r="C61">
-        <v>-0.1204103966449473</v>
+        <v>-0.01165774086656656</v>
       </c>
       <c r="D61">
-        <v>0.04113352295094597</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.116996623963718</v>
+      </c>
+      <c r="E61">
+        <v>-0.03881552064276433</v>
+      </c>
+      <c r="F61">
+        <v>-0.01115281819814383</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>-0.0442247745002605</v>
+        <v>0.170286659671973</v>
       </c>
       <c r="C62">
-        <v>-0.1619449984008328</v>
+        <v>-0.01978502352249097</v>
       </c>
       <c r="D62">
-        <v>-0.0131396869482235</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>-0.006862348214004064</v>
+      </c>
+      <c r="E62">
+        <v>-0.03543519154071619</v>
+      </c>
+      <c r="F62">
+        <v>-0.03322002476446251</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>-0.01407634420893304</v>
+        <v>0.04597636681909477</v>
       </c>
       <c r="C63">
-        <v>-0.04916883149202577</v>
+        <v>-0.001879721537913875</v>
       </c>
       <c r="D63">
-        <v>0.02420384811440049</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.05811095982579954</v>
+      </c>
+      <c r="E63">
+        <v>-0.02139264483458004</v>
+      </c>
+      <c r="F63">
+        <v>-0.004828511095112806</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>-0.03078036456128696</v>
+        <v>0.1103253466335369</v>
       </c>
       <c r="C64">
-        <v>-0.09416721411989964</v>
+        <v>-0.01105284661230891</v>
       </c>
       <c r="D64">
-        <v>0.0001419799879037444</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.04356388982613195</v>
+      </c>
+      <c r="E64">
+        <v>-0.02483394512839582</v>
+      </c>
+      <c r="F64">
+        <v>-0.02577140447751388</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>-0.05213501876184577</v>
+        <v>0.1474483172557123</v>
       </c>
       <c r="C65">
-        <v>-0.1190913936383321</v>
+        <v>-0.03266571618759934</v>
       </c>
       <c r="D65">
-        <v>-0.03656909728864734</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.04039407255584138</v>
+      </c>
+      <c r="E65">
+        <v>-0.005161273759634861</v>
+      </c>
+      <c r="F65">
+        <v>-0.04003263535515914</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>-0.04863643866414175</v>
+        <v>0.124650266834909</v>
       </c>
       <c r="C66">
-        <v>-0.1764881985314673</v>
+        <v>-0.01387610509583097</v>
       </c>
       <c r="D66">
-        <v>0.07379314836327393</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.1425113318665308</v>
+      </c>
+      <c r="E66">
+        <v>-0.06644565833586942</v>
+      </c>
+      <c r="F66">
+        <v>-0.0316712309869769</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>-0.01744587965788101</v>
+        <v>0.0605931280307432</v>
       </c>
       <c r="C67">
-        <v>-0.0721135157455314</v>
+        <v>-0.003288389740210457</v>
       </c>
       <c r="D67">
-        <v>0.0105041130892129</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.05561820049667049</v>
+      </c>
+      <c r="E67">
+        <v>-0.01771855123279392</v>
+      </c>
+      <c r="F67">
+        <v>0.03408365528876095</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>-0.02348730979081941</v>
+        <v>0.116286665576168</v>
       </c>
       <c r="C68">
-        <v>-0.03464734792633588</v>
+        <v>-0.03112734127945322</v>
       </c>
       <c r="D68">
-        <v>-0.1854432423913255</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.2602144674663426</v>
+      </c>
+      <c r="E68">
+        <v>0.08623585090646062</v>
+      </c>
+      <c r="F68">
+        <v>-0.006468462041846207</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>-0.008321025100480325</v>
+        <v>0.04001177648595373</v>
       </c>
       <c r="C69">
-        <v>-0.03708163295026604</v>
+        <v>-0.001461242829852179</v>
       </c>
       <c r="D69">
-        <v>-0.02058444698652084</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.006914825038086912</v>
+      </c>
+      <c r="E69">
+        <v>-0.02278279183883825</v>
+      </c>
+      <c r="F69">
+        <v>0.0005512978378062991</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>0.01510966865226971</v>
+        <v>0.06574886976039539</v>
       </c>
       <c r="C70">
-        <v>-0.01655554375305812</v>
+        <v>0.02778514942249636</v>
       </c>
       <c r="D70">
-        <v>-0.03236880076210714</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>-0.02484476563894695</v>
+      </c>
+      <c r="E70">
+        <v>0.03918350650326504</v>
+      </c>
+      <c r="F70">
+        <v>0.1847786189755147</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>-0.0290258110521074</v>
+        <v>0.1363600270113138</v>
       </c>
       <c r="C71">
-        <v>-0.04815052795711662</v>
+        <v>-0.03545318501654163</v>
       </c>
       <c r="D71">
-        <v>-0.2033083463504173</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.2728276523059018</v>
+      </c>
+      <c r="E71">
+        <v>0.09597040385765548</v>
+      </c>
+      <c r="F71">
+        <v>-0.0125315498170431</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>-0.04643702670230118</v>
+        <v>0.1417058033378176</v>
       </c>
       <c r="C72">
-        <v>-0.1253113817628203</v>
+        <v>-0.02603096357010081</v>
       </c>
       <c r="D72">
-        <v>-0.03473176381281384</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.0006585494491948718</v>
+      </c>
+      <c r="E72">
+        <v>-0.03890826527565788</v>
+      </c>
+      <c r="F72">
+        <v>-0.03327472256871677</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>-0.04936247802534372</v>
+        <v>0.2016182818211399</v>
       </c>
       <c r="C73">
-        <v>-0.2160199753507658</v>
+        <v>-0.01229755023900939</v>
       </c>
       <c r="D73">
-        <v>-0.05777188877014788</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.01664051606318609</v>
+      </c>
+      <c r="E73">
+        <v>-0.06328475146196401</v>
+      </c>
+      <c r="F73">
+        <v>-0.03720920278669526</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>-0.03059511369294498</v>
+        <v>0.09447884472904687</v>
       </c>
       <c r="C74">
-        <v>-0.1182629688562342</v>
+        <v>-0.01329279284181393</v>
       </c>
       <c r="D74">
-        <v>-0.02650103270284517</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.01685955136701528</v>
+      </c>
+      <c r="E74">
+        <v>-0.04382822290421708</v>
+      </c>
+      <c r="F74">
+        <v>-0.05634948971004124</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>-0.04988727104619588</v>
+        <v>0.127785651653627</v>
       </c>
       <c r="C75">
-        <v>-0.1320321517771388</v>
+        <v>-0.02795728953007156</v>
       </c>
       <c r="D75">
-        <v>-0.02236996169977755</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.0301650178771422</v>
+      </c>
+      <c r="E75">
+        <v>-0.05838197231321227</v>
+      </c>
+      <c r="F75">
+        <v>-0.01876505255773522</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
-        <v>1.362167487589401e-05</v>
+        <v>-3.845623632149833e-05</v>
       </c>
       <c r="C76">
-        <v>0.0001640569174114513</v>
+        <v>-2.677631420150958e-05</v>
       </c>
       <c r="D76">
-        <v>-0.0003777193526042825</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.0003762562315799557</v>
+      </c>
+      <c r="E76">
+        <v>0.0002493747490189749</v>
+      </c>
+      <c r="F76">
+        <v>-0.0001341551080114236</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>-0.02941041942774634</v>
+        <v>0.08691890353495006</v>
       </c>
       <c r="C77">
-        <v>-0.09612322508061183</v>
+        <v>-0.008068186225763538</v>
       </c>
       <c r="D77">
-        <v>0.06941922871935648</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.113207271438039</v>
+      </c>
+      <c r="E77">
+        <v>-0.0393107290185035</v>
+      </c>
+      <c r="F77">
+        <v>-0.03273216677150288</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>-0.06728222005900185</v>
+        <v>0.1007507461913346</v>
       </c>
       <c r="C78">
-        <v>-0.1359358377546333</v>
+        <v>-0.03952256716341766</v>
       </c>
       <c r="D78">
-        <v>-0.01089966255305063</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.1160046049075356</v>
+      </c>
+      <c r="E78">
+        <v>-0.07392880950461723</v>
+      </c>
+      <c r="F78">
+        <v>-0.04593490203675429</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>-0.04601154652312669</v>
+        <v>0.1645527197279551</v>
       </c>
       <c r="C79">
-        <v>-0.1401783058608463</v>
+        <v>-0.02235213099433124</v>
       </c>
       <c r="D79">
-        <v>-0.02884494007666035</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.01488418929786017</v>
+      </c>
+      <c r="E79">
+        <v>-0.04638305733282998</v>
+      </c>
+      <c r="F79">
+        <v>-0.01073363531631758</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>-0.01566425677214827</v>
+        <v>0.08277198568925376</v>
       </c>
       <c r="C80">
-        <v>-0.08389146090279941</v>
+        <v>0.0007927337122884773</v>
       </c>
       <c r="D80">
-        <v>0.001560102482489261</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.05593778413422058</v>
+      </c>
+      <c r="E80">
+        <v>-0.03653556730692922</v>
+      </c>
+      <c r="F80">
+        <v>0.02414201415743435</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>-0.05197845553394749</v>
+        <v>0.1212062554221948</v>
       </c>
       <c r="C81">
-        <v>-0.1382713568490545</v>
+        <v>-0.03178895931313299</v>
       </c>
       <c r="D81">
-        <v>-0.01304755644977946</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.0152973443362776</v>
+      </c>
+      <c r="E81">
+        <v>-0.05730841659056701</v>
+      </c>
+      <c r="F81">
+        <v>-0.0165256112285989</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>-0.0489812031945763</v>
+        <v>0.1657977615486169</v>
       </c>
       <c r="C82">
-        <v>-0.1621434475238454</v>
+        <v>-0.0242088735608529</v>
       </c>
       <c r="D82">
-        <v>-0.0136530346943891</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.004142192343102621</v>
+      </c>
+      <c r="E82">
+        <v>-0.02880330736300768</v>
+      </c>
+      <c r="F82">
+        <v>-0.08032372030071754</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>-0.02022297047475827</v>
+        <v>0.05981492145543075</v>
       </c>
       <c r="C83">
-        <v>-0.06624514025791545</v>
+        <v>-0.002898424360445663</v>
       </c>
       <c r="D83">
-        <v>0.01707305627574457</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.05140749127741468</v>
+      </c>
+      <c r="E83">
+        <v>-0.005366518840787405</v>
+      </c>
+      <c r="F83">
+        <v>0.03168025391969269</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>-0.0282005231336406</v>
+        <v>0.05877934391653691</v>
       </c>
       <c r="C84">
-        <v>-0.07187364970483416</v>
+        <v>-0.01108852002596495</v>
       </c>
       <c r="D84">
-        <v>0.0341648638005907</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.06371177970742112</v>
+      </c>
+      <c r="E84">
+        <v>-0.006609599814497265</v>
+      </c>
+      <c r="F84">
+        <v>-0.003930244352865167</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>-0.04825662871630093</v>
+        <v>0.1367355465878343</v>
       </c>
       <c r="C85">
-        <v>-0.1221646393280939</v>
+        <v>-0.02769251152356461</v>
       </c>
       <c r="D85">
-        <v>-0.01516238449682487</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.01021095699434932</v>
+      </c>
+      <c r="E85">
+        <v>-0.03837235897560023</v>
+      </c>
+      <c r="F85">
+        <v>-0.04581938214331348</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>-0.01424874696140806</v>
+        <v>0.09471702456127597</v>
       </c>
       <c r="C86">
-        <v>-0.08643836866283348</v>
+        <v>0.006222274230967079</v>
       </c>
       <c r="D86">
-        <v>-0.1404512993276402</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.04035587195300581</v>
+      </c>
+      <c r="E86">
+        <v>-0.2117514206115843</v>
+      </c>
+      <c r="F86">
+        <v>0.9079538983451461</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>-0.04733945092644181</v>
+        <v>0.0970545185454318</v>
       </c>
       <c r="C87">
-        <v>-0.1146508256445086</v>
+        <v>-0.01968161393192381</v>
       </c>
       <c r="D87">
-        <v>0.06004297673508772</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.09564530555893544</v>
+      </c>
+      <c r="E87">
+        <v>0.05112791811793173</v>
+      </c>
+      <c r="F87">
+        <v>-0.05400975507936756</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>-0.01701769558286696</v>
+        <v>0.06095493469220604</v>
       </c>
       <c r="C88">
-        <v>-0.0591659119695192</v>
+        <v>-0.00222697602341083</v>
       </c>
       <c r="D88">
-        <v>0.006672923557646745</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.04950391298092313</v>
+      </c>
+      <c r="E88">
+        <v>-0.0245377674667674</v>
+      </c>
+      <c r="F88">
+        <v>-0.01208282560264081</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>-0.01150828408283775</v>
+        <v>0.1335107990218883</v>
       </c>
       <c r="C89">
-        <v>-0.06327451448427632</v>
+        <v>-0.01283636258026532</v>
       </c>
       <c r="D89">
-        <v>-0.22979256538083</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.2503771335291</v>
+      </c>
+      <c r="E89">
+        <v>0.09130019067330472</v>
+      </c>
+      <c r="F89">
+        <v>0.007804218790237247</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>-0.02847205827112541</v>
+        <v>0.1508824505482997</v>
       </c>
       <c r="C90">
-        <v>-0.05457987338416063</v>
+        <v>-0.03176169666478398</v>
       </c>
       <c r="D90">
-        <v>-0.2067799421488474</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.269764824332544</v>
+      </c>
+      <c r="E90">
+        <v>0.1127473643148967</v>
+      </c>
+      <c r="F90">
+        <v>0.001117891142827742</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>-0.03216363266263406</v>
+        <v>0.1206318876314685</v>
       </c>
       <c r="C91">
-        <v>-0.1058540727079077</v>
+        <v>-0.01895095974174556</v>
       </c>
       <c r="D91">
-        <v>-0.0326173401233529</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.01335066959353506</v>
+      </c>
+      <c r="E91">
+        <v>-0.05640785444324461</v>
+      </c>
+      <c r="F91">
+        <v>0.002417692085869246</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>-0.01527667751065021</v>
+        <v>0.1476641032420707</v>
       </c>
       <c r="C92">
-        <v>-0.06612907715873047</v>
+        <v>-0.02332574577640727</v>
       </c>
       <c r="D92">
-        <v>-0.2290184163740606</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.2921836835732168</v>
+      </c>
+      <c r="E92">
+        <v>0.1015294383502777</v>
+      </c>
+      <c r="F92">
+        <v>0.01273717849916995</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>-0.02428666050364994</v>
+        <v>0.1523013711270493</v>
       </c>
       <c r="C93">
-        <v>-0.05954291838902514</v>
+        <v>-0.02762639577244377</v>
       </c>
       <c r="D93">
-        <v>-0.2279492104748397</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.2691379605065545</v>
+      </c>
+      <c r="E93">
+        <v>0.07791736952670821</v>
+      </c>
+      <c r="F93">
+        <v>-0.003828650288482372</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>-0.04739275176970708</v>
+        <v>0.1303401126689943</v>
       </c>
       <c r="C94">
-        <v>-0.1441123218948562</v>
+        <v>-0.02467594351639761</v>
       </c>
       <c r="D94">
-        <v>-0.00398962902488839</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.04303673143510184</v>
+      </c>
+      <c r="E94">
+        <v>-0.0581759516878915</v>
+      </c>
+      <c r="F94">
+        <v>-0.03584761024817619</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>-0.03292166101879013</v>
+        <v>0.1267450169686493</v>
       </c>
       <c r="C95">
-        <v>-0.1329248870234315</v>
+        <v>-0.003886476394555528</v>
       </c>
       <c r="D95">
-        <v>0.03984643001492419</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.09158686265215797</v>
+      </c>
+      <c r="E95">
+        <v>-0.04643842541340959</v>
+      </c>
+      <c r="F95">
+        <v>0.007974722327028035</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>0.9591305641172677</v>
+        <v>0.1060524350100188</v>
       </c>
       <c r="C96">
-        <v>-0.2660191491936764</v>
+        <v>0.9876013819803189</v>
       </c>
       <c r="D96">
-        <v>-0.03116602392458893</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>0.04671237096990084</v>
+      </c>
+      <c r="E96">
+        <v>-0.05553538962381602</v>
+      </c>
+      <c r="F96">
+        <v>-0.04239166517215222</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>-0.02022757975561015</v>
+        <v>0.1925337208247301</v>
       </c>
       <c r="C97">
-        <v>-0.1614852203401361</v>
+        <v>0.007344550627986489</v>
       </c>
       <c r="D97">
-        <v>-0.09980861459740942</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.0176479394741459</v>
+      </c>
+      <c r="E97">
+        <v>-0.01834661623333798</v>
+      </c>
+      <c r="F97">
+        <v>0.09263668426645068</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>-0.03656547663516049</v>
+        <v>0.2046557697867107</v>
       </c>
       <c r="C98">
-        <v>-0.1963225789122248</v>
+        <v>-0.006958556210522616</v>
       </c>
       <c r="D98">
-        <v>-0.003281765746823965</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.01395150074653593</v>
+      </c>
+      <c r="E98">
+        <v>0.08382602538083668</v>
+      </c>
+      <c r="F98">
+        <v>0.09446549252866808</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>-0.007008295946035116</v>
+        <v>0.05560590292291936</v>
       </c>
       <c r="C99">
-        <v>-0.06164117062356446</v>
+        <v>0.004769418728451634</v>
       </c>
       <c r="D99">
-        <v>-0.001410943710760958</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>-0.03955656109788433</v>
+      </c>
+      <c r="E99">
+        <v>-0.02287027687789537</v>
+      </c>
+      <c r="F99">
+        <v>-0.001472923450982742</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>-0.001654473382419017</v>
+        <v>0.1257529387651035</v>
       </c>
       <c r="C100">
-        <v>-0.1544862743379085</v>
+        <v>0.05419585778438159</v>
       </c>
       <c r="D100">
-        <v>0.7162269079860337</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>-0.3442315206193463</v>
+      </c>
+      <c r="E100">
+        <v>0.8892876460609651</v>
+      </c>
+      <c r="F100">
+        <v>0.1403897167919148</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>-0.01513652697383565</v>
+        <v>0.02751288169617278</v>
       </c>
       <c r="C101">
-        <v>-0.02521005102063777</v>
+        <v>-0.008292696679171692</v>
       </c>
       <c r="D101">
-        <v>-0.001748251070772432</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.03153070730578489</v>
+      </c>
+      <c r="E101">
+        <v>-0.01057938119475961</v>
+      </c>
+      <c r="F101">
+        <v>0.01275626445384345</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +2731,16 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
